--- a/Original/CN/Dialog/Drama/_chara.xlsx
+++ b/Original/CN/Dialog/Drama/_chara.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="chara" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
     <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -304,6 +304,24 @@
     <t xml:space="preserve">refAction2</t>
   </si>
   <si>
+    <t xml:space="preserve">give_card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これを受け取って{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want you to have this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give_lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こんなものを作ってみたの{だが}、良かったら食べて{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made this... care to try?</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -362,6 +380,12 @@
   </si>
   <si>
     <t xml:space="preserve">明智的选择{。}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请收下这个{。}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{我}试着做了这个{。}，请尝尝看吧{。}。</t>
   </si>
 </sst>
 </file>
@@ -673,12 +697,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K123" sqref="K123"/>
-      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
+      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K133" sqref="K133"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -731,7 +755,7 @@
     <row r="2" ht="12.8">
       <c r="H2" s="1">
         <f>MAX(H4:H1048576)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -830,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -924,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" ht="12.8">
@@ -947,7 +971,7 @@
         <v>37</v>
       </c>
       <c r="K40" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" ht="12.8">
@@ -967,7 +991,7 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" ht="12.8">
@@ -1061,7 +1085,7 @@
         <v>49</v>
       </c>
       <c r="K61" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" ht="12.8">
@@ -1093,7 +1117,7 @@
         <v>54</v>
       </c>
       <c r="K66" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" ht="12.8">
@@ -1117,7 +1141,7 @@
         <v>57</v>
       </c>
       <c r="K70" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" ht="12.8">
@@ -1141,7 +1165,7 @@
         <v>60</v>
       </c>
       <c r="K74" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" ht="12.8">
@@ -1165,7 +1189,7 @@
         <v>63</v>
       </c>
       <c r="K79" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" ht="12.8">
@@ -1179,7 +1203,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" ht="12.8">
@@ -1208,7 +1232,7 @@
         <v>68</v>
       </c>
       <c r="K85" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" ht="12.8">
@@ -1237,7 +1261,7 @@
         <v>71</v>
       </c>
       <c r="K91" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" ht="12.8">
@@ -1261,7 +1285,7 @@
         <v>74</v>
       </c>
       <c r="K95" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" ht="12.8">
@@ -1285,7 +1309,7 @@
         <v>77</v>
       </c>
       <c r="K100" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" ht="12.8">
@@ -1309,7 +1333,7 @@
         <v>80</v>
       </c>
       <c r="K104" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" ht="12.8">
@@ -1333,7 +1357,7 @@
         <v>83</v>
       </c>
       <c r="K109" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" ht="12.8">
@@ -1356,7 +1380,7 @@
         <v>86</v>
       </c>
       <c r="K111" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" ht="12.8">
@@ -1376,7 +1400,7 @@
         <v>89</v>
       </c>
       <c r="K112" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" ht="12.8">
@@ -1419,7 +1443,7 @@
         <v>92</v>
       </c>
       <c r="K123" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" ht="12.8">
@@ -1429,6 +1453,54 @@
     </row>
     <row r="126" ht="12.8">
       <c r="B126" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" ht="12.8">
+      <c r="A128" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" ht="12.8">
+      <c r="H129" s="1">
+        <v>20</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" ht="12.8">
+      <c r="B130" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" ht="12.8">
+      <c r="A132" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" ht="12.8">
+      <c r="H133" s="1">
+        <v>21</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K133" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" ht="12.8">
+      <c r="B134" s="1" t="s">
         <v>25</v>
       </c>
     </row>
